--- a/doc/任务清单.xlsx
+++ b/doc/任务清单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28710" windowHeight="14100"/>
+    <workbookView windowWidth="19710" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="业务" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
   <si>
     <t>序号</t>
   </si>
   <si>
+    <t>系统需求(SR)</t>
+  </si>
+  <si>
+    <t>任务(Story)</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>正常流程</t>
+  </si>
+  <si>
+    <t>A类账户下单</t>
+  </si>
+  <si>
+    <t>B类账户下单</t>
+  </si>
+  <si>
+    <t>A类账户退货</t>
+  </si>
+  <si>
+    <t>B类账户退货</t>
+  </si>
+  <si>
+    <t>异常流程</t>
+  </si>
+  <si>
+    <t>用户操作超时</t>
+  </si>
+  <si>
+    <t>用户错误操作</t>
+  </si>
+  <si>
+    <t>计费模块</t>
+  </si>
+  <si>
+    <t>按时间计费</t>
+  </si>
+  <si>
+    <t>固定计费</t>
+  </si>
+  <si>
+    <t>维护接口完善</t>
+  </si>
+  <si>
+    <t>游戏入库</t>
+  </si>
+  <si>
+    <t>淘宝用户入库</t>
+  </si>
+  <si>
+    <t>微信用户入库</t>
+  </si>
+  <si>
+    <t>压力测试</t>
+  </si>
+  <si>
+    <t>统一平台</t>
+  </si>
+  <si>
+    <t>功能分析</t>
+  </si>
+  <si>
+    <t>网站制作</t>
+  </si>
+  <si>
+    <t>微信接口维护</t>
+  </si>
+  <si>
+    <t>微博接口维护</t>
+  </si>
+  <si>
+    <t>淘宝接口维护</t>
+  </si>
+  <si>
     <t>任务名称</t>
-  </si>
-  <si>
-    <t>任务描述</t>
   </si>
   <si>
     <t>优先级</t>
@@ -100,6 +172,19 @@
   <si>
     <t>1. 消息集中化管理
 2. 消息持久化与恢复</t>
+  </si>
+  <si>
+    <t>安全通讯</t>
+  </si>
+  <si>
+    <t>1. 安全套接字</t>
+  </si>
+  <si>
+    <t>接口规范化</t>
+  </si>
+  <si>
+    <t>1. 规范fjserver接口，规范ISIS接口
+2. 规范WSI接口</t>
   </si>
 </sst>
 </file>
@@ -107,10 +192,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -135,23 +220,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,13 +288,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -187,93 +333,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +379,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,11 +612,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,7 +638,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,6 +654,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,18 +684,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,21 +707,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +715,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,137 +727,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -798,6 +883,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,6 +943,7 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -1143,14 +1235,251 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="4" max="4" width="26.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1160,10 +1489,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1179,13 +1508,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="27" spans="1:4">
@@ -1193,13 +1522,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:4">
@@ -1207,13 +1536,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1221,13 +1550,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1235,13 +1564,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
@@ -1249,13 +1578,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" ht="27" spans="1:4">
@@ -1263,13 +1592,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:4">
@@ -1277,13 +1606,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" ht="40.5" spans="1:4">
@@ -1291,13 +1620,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" ht="27" spans="1:4">
@@ -1305,13 +1634,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" ht="27" spans="1:4">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
